--- a/medicine/Pharmacie/2022_en_santé_et_médecine/2022_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/2022_en_santé_et_médecine/2022_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2022_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le début de l'année 2022 est marqué par la poursuite de la pandémie de COVID-19 provoquée par le coronavirus SARS-CoV-2, avec une 5e vague débutée dans le dernier trimestre de l'année 2021, ainsi que les campagnes de vaccination qui y sont liées. L'apparition et la propagation de nouveaux variants de ce virus, notamment le variant Omicron apparu en Afrique australe — le premier cas a été détecté le 9 novembre 2021 au Botswana — et classé le 26 novembre 2021 comme variant préoccupant par l'Organisation mondiale de la santé (OMS)[1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le début de l'année 2022 est marqué par la poursuite de la pandémie de COVID-19 provoquée par le coronavirus SARS-CoV-2, avec une 5e vague débutée dans le dernier trimestre de l'année 2021, ainsi que les campagnes de vaccination qui y sont liées. L'apparition et la propagation de nouveaux variants de ce virus, notamment le variant Omicron apparu en Afrique australe — le premier cas a été détecté le 9 novembre 2021 au Botswana — et classé le 26 novembre 2021 comme variant préoccupant par l'Organisation mondiale de la santé (OMS),
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2022_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pandémie de Covid-19
-x
-Autres événements
-Épidémie de variole du singe de 2022.</t>
+          <t>Pandémie de Covid-19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>x</t>
         </is>
       </c>
     </row>
@@ -526,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>2022_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +556,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autres événements</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Épidémie de variole du singe de 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2022_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2022_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>x</t>
         </is>
